--- a/Silksong/Assets/Resources/AllDialogue.xlsx
+++ b/Silksong/Assets/Resources/AllDialogue.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unitygame\SO对话\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6018FDCA-1452-4851-95E7-542AB3F1429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98D28A-8298-4F7A-BEAE-A1C255F62B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="plot" sheetId="1" r:id="rId1"/>
+    <sheet name="gossip" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +154,23 @@
   </si>
   <si>
     <t>这个是7005</t>
+  </si>
+  <si>
+    <t>这个是8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是8002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是8003</t>
+  </si>
+  <si>
+    <t>这个是8004</t>
+  </si>
+  <si>
+    <t>这个是8005</t>
   </si>
 </sst>
 </file>
@@ -516,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC2C54E-88A8-47F2-A3D5-D4908BD886CD}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -582,33 +600,36 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="B2">
-        <v>5001</v>
+        <v>6001</v>
       </c>
       <c r="C2">
-        <v>5003</v>
+        <v>6003</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>1002</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>5002</v>
+        <v>6002</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1002</v>
@@ -616,128 +637,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>5003</v>
+        <v>6003</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>6001</v>
-      </c>
-      <c r="B5">
-        <v>6001</v>
-      </c>
-      <c r="C5">
-        <v>6003</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1002</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>6002</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>6003</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7001</v>
-      </c>
-      <c r="B8">
-        <v>7001</v>
-      </c>
-      <c r="C8">
-        <v>7005</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1005</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>7002</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>7003</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>7004</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>7005</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12">
-        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -745,4 +651,252 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A887DA09-5A7D-48CA-91F8-80BF08F72675}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5001</v>
+      </c>
+      <c r="B2">
+        <v>5001</v>
+      </c>
+      <c r="C2">
+        <v>5003</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>5002</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>5003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7001</v>
+      </c>
+      <c r="B5">
+        <v>7001</v>
+      </c>
+      <c r="C5">
+        <v>7005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1005</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>7002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>7003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>7004</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>7005</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8001</v>
+      </c>
+      <c r="B10">
+        <v>8001</v>
+      </c>
+      <c r="C10">
+        <v>8005</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>1005</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>8003</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>8004</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>8005</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>1005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Silksong/Assets/Resources/AllDialogue.xlsx
+++ b/Silksong/Assets/Resources/AllDialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\unitygame\SO对话\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\魂灵之歌\Silksong\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D98D28A-8298-4F7A-BEAE-A1C255F62B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B63D88-82F0-485C-991F-2F02CEDA5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
+    <workbookView xWindow="8010" yWindow="540" windowWidth="20790" windowHeight="14340" activeTab="1" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,24 @@
   </si>
   <si>
     <t>这个是8005</t>
+  </si>
+  <si>
+    <t>这个是9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是9002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是9003</t>
+  </si>
+  <si>
+    <t>这个是9004</t>
+  </si>
+  <si>
+    <t>一幅画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -536,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC2C54E-88A8-47F2-A3D5-D4908BD886CD}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,10 +673,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A887DA09-5A7D-48CA-91F8-80BF08F72675}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -895,6 +913,62 @@
         <v>1005</v>
       </c>
     </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>9001</v>
+      </c>
+      <c r="B15">
+        <v>9001</v>
+      </c>
+      <c r="C15">
+        <v>9004</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>1007</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>9002</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>9003</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>9004</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>1007</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Silksong/Assets/Resources/AllDialogue.xlsx
+++ b/Silksong/Assets/Resources/AllDialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\魂灵之歌\Silksong\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B63D88-82F0-485C-991F-2F02CEDA5122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA03E4-657F-468E-B897-A27DD9E9EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8010" yWindow="540" windowWidth="20790" windowHeight="14340" activeTab="1" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
+    <workbookView xWindow="1680" yWindow="480" windowWidth="20790" windowHeight="14340" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,30 @@
   </si>
   <si>
     <t>一幅画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是110001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是110002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是110003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC2C54E-88A8-47F2-A3D5-D4908BD886CD}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,9 +662,6 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
@@ -661,6 +682,99 @@
         <v>26</v>
       </c>
       <c r="E4">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>110001</v>
+      </c>
+      <c r="B5">
+        <v>110001</v>
+      </c>
+      <c r="C5">
+        <v>110003</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>1002</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>110002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>110003</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>105001</v>
+      </c>
+      <c r="B8">
+        <v>105001</v>
+      </c>
+      <c r="C8">
+        <v>105003</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>105002</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>105003</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10">
         <v>1002</v>
       </c>
     </row>
@@ -675,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A887DA09-5A7D-48CA-91F8-80BF08F72675}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -736,16 +850,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5001</v>
+        <v>1001</v>
       </c>
       <c r="B2">
-        <v>5001</v>
+        <v>1001</v>
       </c>
       <c r="C2">
-        <v>5003</v>
+        <v>1003</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>1002</v>
@@ -759,24 +873,18 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>5002</v>
+        <v>1002</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1002</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>5003</v>
+        <v>1003</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1002</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">

--- a/Silksong/Assets/Resources/AllDialogue.xlsx
+++ b/Silksong/Assets/Resources/AllDialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\魂灵之歌\Silksong\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FA03E4-657F-468E-B897-A27DD9E9EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20CB5351-FA94-4A9B-A8E5-AA07C640B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="480" windowWidth="20790" windowHeight="14340" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
+    <workbookView xWindow="1680" yWindow="480" windowWidth="20790" windowHeight="14340" activeTab="1" xr2:uid="{7A3AFAEE-5BB8-4897-9F8E-031E251E5F32}"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC2C54E-88A8-47F2-A3D5-D4908BD886CD}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -642,16 +642,16 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6001</v>
+        <v>110001</v>
       </c>
       <c r="B2">
-        <v>6001</v>
+        <v>110001</v>
       </c>
       <c r="C2">
-        <v>6003</v>
+        <v>110003</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>1002</v>
@@ -662,13 +662,16 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>6002</v>
+        <v>110002</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>1002</v>
@@ -676,10 +679,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>6003</v>
+        <v>110003</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>1002</v>
@@ -687,16 +690,16 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>110001</v>
+        <v>105001</v>
       </c>
       <c r="B5">
-        <v>110001</v>
+        <v>105001</v>
       </c>
       <c r="C5">
-        <v>110003</v>
+        <v>105003</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1002</v>
@@ -707,16 +710,13 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>110002</v>
+        <v>105002</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <v>1002</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>110003</v>
+        <v>105003</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1002</v>
@@ -735,16 +735,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>105001</v>
+        <v>6001</v>
       </c>
       <c r="B8">
-        <v>105001</v>
+        <v>6001</v>
       </c>
       <c r="C8">
-        <v>105003</v>
+        <v>6003</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>1002</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>105002</v>
+        <v>6002</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1002</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>105003</v>
+        <v>6003</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1002</v>
@@ -789,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A887DA09-5A7D-48CA-91F8-80BF08F72675}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
